--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H2">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J2">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N2">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q2">
-        <v>20603.62843912442</v>
+        <v>83472.3628801106</v>
       </c>
       <c r="R2">
-        <v>20603.62843912442</v>
+        <v>751251.2659209954</v>
       </c>
       <c r="S2">
-        <v>0.2036853345810801</v>
+        <v>0.4156495716650636</v>
       </c>
       <c r="T2">
-        <v>0.2036853345810801</v>
+        <v>0.4156495716650637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H3">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J3">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N3">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q3">
-        <v>10580.59711730663</v>
+        <v>11512.72339750257</v>
       </c>
       <c r="R3">
-        <v>10580.59711730663</v>
+        <v>103614.5105775231</v>
       </c>
       <c r="S3">
-        <v>0.1045986861136483</v>
+        <v>0.05732746005696822</v>
       </c>
       <c r="T3">
-        <v>0.1045986861136483</v>
+        <v>0.05732746005696823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>188.183681225872</v>
+        <v>203.7816646666667</v>
       </c>
       <c r="H4">
-        <v>188.183681225872</v>
+        <v>611.344994</v>
       </c>
       <c r="I4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988204</v>
       </c>
       <c r="J4">
-        <v>0.6509159294994957</v>
+        <v>0.6667327591988205</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N4">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q4">
-        <v>34658.65893055379</v>
+        <v>38910.77844553861</v>
       </c>
       <c r="R4">
-        <v>34658.65893055379</v>
+        <v>350197.0060098476</v>
       </c>
       <c r="S4">
-        <v>0.3426319088047674</v>
+        <v>0.1937557274767886</v>
       </c>
       <c r="T4">
-        <v>0.3426319088047674</v>
+        <v>0.1937557274767886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J5">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N5">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q5">
-        <v>6875.392809691546</v>
+        <v>25863.4367027926</v>
       </c>
       <c r="R5">
-        <v>6875.392809691546</v>
+        <v>232770.9303251334</v>
       </c>
       <c r="S5">
-        <v>0.06796942048125422</v>
+        <v>0.1287866548445787</v>
       </c>
       <c r="T5">
-        <v>0.06796942048125422</v>
+        <v>0.1287866548445787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J6">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N6">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q6">
-        <v>3530.725743647926</v>
+        <v>3567.151840372971</v>
       </c>
       <c r="R6">
-        <v>3530.725743647926</v>
+        <v>32104.36656335674</v>
       </c>
       <c r="S6">
-        <v>0.034904388638816</v>
+        <v>0.01776258732060592</v>
       </c>
       <c r="T6">
-        <v>0.034904388638816</v>
+        <v>0.01776258732060592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7965473472026</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
-        <v>62.7965473472026</v>
+        <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="J7">
-        <v>0.217209445152696</v>
+        <v>0.2065833519051582</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N7">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q7">
-        <v>11565.53056218907</v>
+        <v>12056.28330933911</v>
       </c>
       <c r="R7">
-        <v>11565.53056218907</v>
+        <v>108506.549784052</v>
       </c>
       <c r="S7">
-        <v>0.1143356360326258</v>
+        <v>0.06003410973997356</v>
       </c>
       <c r="T7">
-        <v>0.1143356360326258</v>
+        <v>0.06003410973997355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H8">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J8">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N8">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q8">
-        <v>4174.265305358586</v>
+        <v>15860.33294314095</v>
       </c>
       <c r="R8">
-        <v>4174.265305358586</v>
+        <v>142742.9964882685</v>
       </c>
       <c r="S8">
-        <v>0.04126635402420848</v>
+        <v>0.07897632661663426</v>
       </c>
       <c r="T8">
-        <v>0.04126635402420848</v>
+        <v>0.07897632661663428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H9">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J9">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N9">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q9">
-        <v>2143.61366432344</v>
+        <v>2187.497991747728</v>
       </c>
       <c r="R9">
-        <v>2143.61366432344</v>
+        <v>19687.48192572955</v>
       </c>
       <c r="S9">
-        <v>0.02119154243731111</v>
+        <v>0.01089261848971545</v>
       </c>
       <c r="T9">
-        <v>0.02119154243731111</v>
+        <v>0.01089261848971545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.125741487561</v>
+        <v>38.719942</v>
       </c>
       <c r="H10">
-        <v>38.125741487561</v>
+        <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="J10">
-        <v>0.1318746253478083</v>
+        <v>0.1266838888960214</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N10">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q10">
-        <v>7021.794143275446</v>
+        <v>7393.320135305329</v>
       </c>
       <c r="R10">
-        <v>7021.794143275446</v>
+        <v>66539.88121774797</v>
       </c>
       <c r="S10">
-        <v>0.06941672888628873</v>
+        <v>0.0368149437896717</v>
       </c>
       <c r="T10">
-        <v>0.06941672888628873</v>
+        <v>0.0368149437896717</v>
       </c>
     </row>
   </sheetData>
